--- a/biology/Botanique/Trachycarpus_nanus/Trachycarpus_nanus.xlsx
+++ b/biology/Botanique/Trachycarpus_nanus/Trachycarpus_nanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trachycarpus nanus est une espèce de plantes de la famille des Arecaceae (palmiers). C'est le plus petit représentant du genre Trachycarpus. Véritable rareté botanique, il est menacé d’extinction dans son habitat naturel, les chèvres dévorant les inflorescences avant qu’elles ne puissent s’épanouir. Les récents efforts pour la récolte de graines viables semblent donner une chance à ce palmier très rustique de devenir plus courant dans les jardins d’Europe.[réf. nécessaire]
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aire d'origine : Sud-Ouest de la Chine, dans le Yunnan, où il pousse sur des pentes en compagnie de buissons et de hautes herbes à environ 2000 mètres d’altitude.</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Stipe (tronc) : Souterrain, jusqu’à 2 mètres de long et 5 cm de diamètre. Quelques rares spécimens présentent un stipe très court, de 10 à 30 cm de hauteur.
 Feuillage, couronne : De 10 à 20 feuilles palmées, d’une belle couleur bleutée, plus petites et plus divisées que celles du Trachycarpus fortunei. Les pétioles sont très courts, de 10 à 30 cm seulement. La plante fait un peu penser à une couronne unique de Chamaerops humilis var. cerifera (palmier nain bleu du Maroc).
@@ -573,7 +589,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucune utilisation locale connue.
 Sur les autres projets Wikimedia :
